--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>5208.127051216881</v>
+        <v>4445.254038717038</v>
       </c>
       <c r="R2">
-        <v>20832.50820486752</v>
+        <v>17781.01615486815</v>
       </c>
       <c r="S2">
-        <v>0.008252597293475836</v>
+        <v>0.003093158943320359</v>
       </c>
       <c r="T2">
-        <v>0.004420937101125499</v>
+        <v>0.001693667026060567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>3758.354403966096</v>
+        <v>2619.312990531372</v>
       </c>
       <c r="R3">
-        <v>22550.12642379657</v>
+        <v>15715.87794318823</v>
       </c>
       <c r="S3">
-        <v>0.005955343461685835</v>
+        <v>0.001822607061700267</v>
       </c>
       <c r="T3">
-        <v>0.004785438678897989</v>
+        <v>0.001496959680264564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>2675.054523668274</v>
+        <v>1711.730948905817</v>
       </c>
       <c r="R4">
-        <v>16050.32714200964</v>
+        <v>10270.3856934349</v>
       </c>
       <c r="S4">
-        <v>0.004238788244761998</v>
+        <v>0.001191080610253353</v>
       </c>
       <c r="T4">
-        <v>0.003406094266207119</v>
+        <v>0.0009782688144700053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>4427.464465885989</v>
+        <v>3794.286865317077</v>
       </c>
       <c r="R5">
-        <v>17709.85786354396</v>
+        <v>15177.14746126831</v>
       </c>
       <c r="S5">
-        <v>0.0070155894640846</v>
+        <v>0.002640193844661745</v>
       </c>
       <c r="T5">
-        <v>0.003758268899484086</v>
+        <v>0.001445644837219911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>3852.308447622888</v>
+        <v>1320.024451899688</v>
       </c>
       <c r="R6">
-        <v>23113.85068573732</v>
+        <v>7920.146711398131</v>
       </c>
       <c r="S6">
-        <v>0.006104219416279146</v>
+        <v>0.0009185179076904902</v>
       </c>
       <c r="T6">
-        <v>0.004905068513189193</v>
+        <v>0.0007544052156425543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>2520.110163649871</v>
+        <v>1902.493389220611</v>
       </c>
       <c r="R7">
-        <v>15120.66098189922</v>
+        <v>11414.96033532367</v>
       </c>
       <c r="S7">
-        <v>0.003993269386724836</v>
+        <v>0.001323819604058895</v>
       </c>
       <c r="T7">
-        <v>0.003208806662694608</v>
+        <v>0.001087291173650605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>13697.34550935251</v>
+        <v>16774.97028656869</v>
       </c>
       <c r="R8">
-        <v>82184.07305611507</v>
+        <v>100649.8217194121</v>
       </c>
       <c r="S8">
-        <v>0.0217042855073734</v>
+        <v>0.01167259484247805</v>
       </c>
       <c r="T8">
-        <v>0.01744056040311533</v>
+        <v>0.009587038375102757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>9884.451418229522</v>
       </c>
       <c r="R9">
-        <v>88960.06276406569</v>
+        <v>88960.0627640657</v>
       </c>
       <c r="S9">
-        <v>0.01566252056053719</v>
+        <v>0.006877937467199598</v>
       </c>
       <c r="T9">
-        <v>0.01887851612127144</v>
+        <v>0.008473572242862279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>7035.378689250589</v>
+        <v>6459.526397457012</v>
       </c>
       <c r="R10">
-        <v>63318.4082032553</v>
+        <v>58135.7375771131</v>
       </c>
       <c r="S10">
-        <v>0.01114798977799921</v>
+        <v>0.004494758155975873</v>
       </c>
       <c r="T10">
-        <v>0.01343701378908256</v>
+        <v>0.00553751151860403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>11644.20720217485</v>
+        <v>14318.42789411915</v>
       </c>
       <c r="R11">
-        <v>69865.24321304911</v>
+        <v>85910.56736471487</v>
       </c>
       <c r="S11">
-        <v>0.01845096171739654</v>
+        <v>0.009963249098754498</v>
       </c>
       <c r="T11">
-        <v>0.01482633981286794</v>
+        <v>0.008183103477802985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>10131.55003646833</v>
+        <v>4981.351069094867</v>
       </c>
       <c r="R12">
-        <v>91183.95032821501</v>
+        <v>44832.1596218538</v>
       </c>
       <c r="S12">
-        <v>0.01605406350256714</v>
+        <v>0.003466193489728253</v>
       </c>
       <c r="T12">
-        <v>0.01935045483092629</v>
+        <v>0.004270326836063819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>6627.875874317974</v>
+        <v>7179.4029759838</v>
       </c>
       <c r="R13">
-        <v>59650.88286886177</v>
+        <v>64614.6267838542</v>
       </c>
       <c r="S13">
-        <v>0.01050227653127438</v>
+        <v>0.004995672762332014</v>
       </c>
       <c r="T13">
-        <v>0.01265871582031711</v>
+        <v>0.006154634911293418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>86333.43255900148</v>
+        <v>187780.5563188508</v>
       </c>
       <c r="R14">
-        <v>518000.5953540088</v>
+        <v>1126683.337913105</v>
       </c>
       <c r="S14">
-        <v>0.1368006281080305</v>
+        <v>0.1306640975072288</v>
       </c>
       <c r="T14">
-        <v>0.1099266601930613</v>
+        <v>0.1073181870830728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>62301.02170641559</v>
+        <v>110647.4559724218</v>
       </c>
       <c r="R15">
-        <v>560709.1953577403</v>
+        <v>995827.1037517964</v>
       </c>
       <c r="S15">
-        <v>0.09871979659079443</v>
+        <v>0.07699226298785847</v>
       </c>
       <c r="T15">
-        <v>0.1189899968031729</v>
+        <v>0.09485394504970682</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>44343.51102414177</v>
+        <v>72308.53108824747</v>
       </c>
       <c r="R16">
-        <v>399091.599217276</v>
+        <v>650776.7797942273</v>
       </c>
       <c r="S16">
-        <v>0.07026501762769863</v>
+        <v>0.05031473514582818</v>
       </c>
       <c r="T16">
-        <v>0.08469257951929765</v>
+        <v>0.06198741194898456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>73392.64213679914</v>
+        <v>160281.7954152705</v>
       </c>
       <c r="R17">
-        <v>440355.8528207949</v>
+        <v>961690.7724916229</v>
       </c>
       <c r="S17">
-        <v>0.1162951506180464</v>
+        <v>0.1115295244370952</v>
       </c>
       <c r="T17">
-        <v>0.09344940648953375</v>
+        <v>0.09160241104611121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>63858.46740847347</v>
+        <v>55761.70085517761</v>
       </c>
       <c r="R18">
-        <v>574726.2066762613</v>
+        <v>501855.3076965985</v>
       </c>
       <c r="S18">
-        <v>0.1011876649932243</v>
+        <v>0.03880088791162252</v>
       </c>
       <c r="T18">
-        <v>0.121964594234051</v>
+        <v>0.04780243036146723</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>41775.04863363213</v>
+        <v>80366.89554954882</v>
       </c>
       <c r="R19">
-        <v>375975.4377026891</v>
+        <v>723302.0599459393</v>
       </c>
       <c r="S19">
-        <v>0.06619513116681404</v>
+        <v>0.05592201920314229</v>
       </c>
       <c r="T19">
-        <v>0.07978702061729426</v>
+        <v>0.06889554782147402</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>8754.661160441043</v>
+        <v>16709.96358371131</v>
       </c>
       <c r="R20">
-        <v>35018.64464176417</v>
+        <v>66839.85433484522</v>
       </c>
       <c r="S20">
-        <v>0.01387229848416867</v>
+        <v>0.01162736096775058</v>
       </c>
       <c r="T20">
-        <v>0.007431425146000051</v>
+        <v>0.006366590993880024</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>6317.649128756699</v>
+        <v>9846.146992929433</v>
       </c>
       <c r="R21">
-        <v>37905.89477254019</v>
+        <v>59076.8819575766</v>
       </c>
       <c r="S21">
-        <v>0.01001070319298867</v>
+        <v>0.006851283945341504</v>
       </c>
       <c r="T21">
-        <v>0.00804413827194015</v>
+        <v>0.005627156856647142</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>4496.663716171987</v>
+        <v>6434.49431060705</v>
       </c>
       <c r="R22">
-        <v>26979.98229703192</v>
+        <v>38606.9658636423</v>
       </c>
       <c r="S22">
-        <v>0.007125239927678293</v>
+        <v>0.004477339978603881</v>
       </c>
       <c r="T22">
-        <v>0.005725513392419475</v>
+        <v>0.003677368294926997</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>7442.397394984519</v>
+        <v>14262.94083383844</v>
       </c>
       <c r="R23">
-        <v>29769.58957993807</v>
+        <v>57051.76333535375</v>
       </c>
       <c r="S23">
-        <v>0.01179293592395566</v>
+        <v>0.009924639315095123</v>
       </c>
       <c r="T23">
-        <v>0.006317505399012717</v>
+        <v>0.005434261433548333</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>6475.582260721349</v>
+        <v>4962.047237061481</v>
       </c>
       <c r="R24">
-        <v>38853.49356432809</v>
+        <v>29772.28342236889</v>
       </c>
       <c r="S24">
-        <v>0.01026095794380108</v>
+        <v>0.003452761226875698</v>
       </c>
       <c r="T24">
-        <v>0.008245231419937472</v>
+        <v>0.00283585225297658</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>4236.208209356813</v>
+        <v>7151.581208911766</v>
       </c>
       <c r="R25">
-        <v>25417.24925614088</v>
+        <v>42909.48725347059</v>
       </c>
       <c r="S25">
-        <v>0.006712532175068539</v>
+        <v>0.004976313430584424</v>
       </c>
       <c r="T25">
-        <v>0.005393880522690631</v>
+        <v>0.004087189564049311</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>2599.790002484457</v>
+        <v>70505.20755904441</v>
       </c>
       <c r="R26">
-        <v>15598.74001490674</v>
+        <v>423031.2453542665</v>
       </c>
       <c r="S26">
-        <v>0.004119526986788041</v>
+        <v>0.04905992130313848</v>
       </c>
       <c r="T26">
-        <v>0.003310261432975189</v>
+        <v>0.04029432654520702</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>1876.093288265981</v>
+        <v>41544.35369745832</v>
       </c>
       <c r="R27">
-        <v>16884.83959439383</v>
+        <v>373899.1832771248</v>
       </c>
       <c r="S27">
-        <v>0.002972785080086417</v>
+        <v>0.02890797422701296</v>
       </c>
       <c r="T27">
-        <v>0.003583188979230415</v>
+        <v>0.03561442789725302</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>1335.332248684037</v>
+        <v>27149.39231519742</v>
       </c>
       <c r="R28">
-        <v>12017.99023815633</v>
+        <v>244344.5308367768</v>
       </c>
       <c r="S28">
-        <v>0.002115915989185798</v>
+        <v>0.01889147052430392</v>
       </c>
       <c r="T28">
-        <v>0.002550378399102964</v>
+        <v>0.02327416337019558</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>2210.099281674811</v>
+        <v>60180.35879338532</v>
       </c>
       <c r="R29">
-        <v>13260.59569004887</v>
+        <v>361082.1527603119</v>
       </c>
       <c r="S29">
-        <v>0.003502038097553874</v>
+        <v>0.04187554038367456</v>
       </c>
       <c r="T29">
-        <v>0.002814075909278382</v>
+        <v>0.03439358754880112</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>1922.993216203577</v>
+        <v>20936.62075408906</v>
       </c>
       <c r="R30">
-        <v>17306.9389458322</v>
+        <v>188429.5867868015</v>
       </c>
       <c r="S30">
-        <v>0.003047100897376548</v>
+        <v>0.01456841277559649</v>
       </c>
       <c r="T30">
-        <v>0.00367276411174849</v>
+        <v>0.01794818558711276</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>1257.987208104991</v>
+        <v>30175.03389422092</v>
       </c>
       <c r="R31">
-        <v>11321.88487294492</v>
+        <v>271575.3050479882</v>
       </c>
       <c r="S31">
-        <v>0.001993358020405587</v>
+        <v>0.02099681483712064</v>
       </c>
       <c r="T31">
-        <v>0.002402655522669073</v>
+        <v>0.02586793326354346</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>29867.70330958701</v>
+        <v>108288.6571336984</v>
       </c>
       <c r="R32">
-        <v>179206.2198575221</v>
+        <v>649731.9428021903</v>
       </c>
       <c r="S32">
-        <v>0.04732721092843644</v>
+        <v>0.07535093053307781</v>
       </c>
       <c r="T32">
-        <v>0.03802995867465737</v>
+        <v>0.06188788974251398</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>21553.50919169897</v>
+        <v>63807.80128358128</v>
       </c>
       <c r="R33">
-        <v>193981.5827252907</v>
+        <v>574270.2115522316</v>
       </c>
       <c r="S33">
-        <v>0.03415285953493808</v>
+        <v>0.04439963823774641</v>
       </c>
       <c r="T33">
-        <v>0.04116548845543759</v>
+        <v>0.05470005273509369</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>15340.97268829578</v>
+        <v>41698.63954157723</v>
       </c>
       <c r="R34">
-        <v>138068.754194662</v>
+        <v>375287.7558741951</v>
       </c>
       <c r="S34">
-        <v>0.0243087137548105</v>
+        <v>0.02901533156461562</v>
       </c>
       <c r="T34">
-        <v>0.02930003780258873</v>
+        <v>0.03574669140798074</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>25390.73908535398</v>
+        <v>92430.76455171533</v>
       </c>
       <c r="R35">
-        <v>152344.4345121239</v>
+        <v>554584.5873102919</v>
       </c>
       <c r="S35">
-        <v>0.04023318605604761</v>
+        <v>0.06431646954728198</v>
       </c>
       <c r="T35">
-        <v>0.03232952825753684</v>
+        <v>0.05282496908545291</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>22092.31930003174</v>
+        <v>32156.46935695019</v>
       </c>
       <c r="R36">
-        <v>198830.8737002857</v>
+        <v>289408.2242125517</v>
       </c>
       <c r="S36">
-        <v>0.03500663725541162</v>
+        <v>0.0223755650207484</v>
       </c>
       <c r="T36">
-        <v>0.04219457291203219</v>
+        <v>0.02756654412494553</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>14452.39371758073</v>
+        <v>46345.70994819867</v>
       </c>
       <c r="R37">
-        <v>130071.5434582266</v>
+        <v>417111.389533788</v>
       </c>
       <c r="S37">
-        <v>0.0229007057825301</v>
+        <v>0.03224892120050267</v>
       </c>
       <c r="T37">
-        <v>0.0276029226351522</v>
+        <v>0.03973045187601763</v>
       </c>
     </row>
   </sheetData>
